--- a/src/app/data/output/Pacífico/PacificoAnulado/Anulados_preparado.xlsx
+++ b/src/app/data/output/Pacífico/PacificoAnulado/Anulados_preparado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,4062 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FIMA INDUSTRIAL SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20546204201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63344</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>45626</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DISTRIBUIDORA CRISTIAN &amp; JKM S.A.C.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20603622571</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vida Ley Empleados</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77987</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-11-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>EN RENOVACION</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TRIBECA MEDIA GROUP PERU SAC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20392469029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Vida Ley Empleados</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78915</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>03 - PENDIENTE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>EN PROCESO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EN PROCESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BLUE OPS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20602665691</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>95888</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>45900</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CERRO AZUL S.A.C.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20111709948</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>108960</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-01-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SERPAC PORTUARIA S.A.C.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20100398606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>109455</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-01-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BLUE COAST S.A.C.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20609837340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Vida Ley Empleados</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>111262</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>02 - EN PROCESO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3. Por renovar en Pacifico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>RENOVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COFFEE MICROLOTS PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20611672463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Vida Ley Empleados</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>112079</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03 - PENDIENTE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-09-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>RENUEVA EN OCTUBRE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>RENUEVA EN OCTUBRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GAT PERU SAC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20602674127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>117205</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BRICONS SAICFI SUCURSAL DEL PERU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20548806772</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>119880</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>45869</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SERPAC AGENCIAS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20508783842</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>119969</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CAMBIO DE BROKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>F.G.H. CORPORATION S.A.C.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20509010502</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120757</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>45869</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>QUALITY SUPPLIER S.A.C.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20605524258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>124288</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>45504</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>RENOVACION TRIMESTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SERPAC INTERNATIONAL S.A.C.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20502216369</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>124351</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.08.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>POMA CORREA NEHEMIAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10721756314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>127990</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>45777</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MYTER S.A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20345591126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vida Ley Empleados</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>131203</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>46234</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SE SOLICITÓ EL INGRESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JUNTA DE PROPIETARIOS CALLE ALCANFORES</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20602246788</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Vida Ley Empleados</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>131204</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>46234</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SE SOLICITÓ EL INGRESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>XDR INVESTMENT SERVICES SAC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20522147185</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Vida Ley Empleados</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>132206</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NOVO NORDISK PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20601289688</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1128527</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TRIBECA MEDIA GROUP PERU SAC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20392469029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1129050</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DRAGCO S.A.C.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20553260613</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1129083</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MEDINA RAGGIO FERNANDO MARIO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10076062434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1129805</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1129805</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MARVAL PERU SAC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20608582275</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1129959</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>45869</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RICOLFI &amp; C PERU SAC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20601833591</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1130137</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>45869</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>PÓLIZA EVENTUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RDV INGENIERIA Y CONSTRUCCION S.A.C.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1130722</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3. Por renovar en Pacifico</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BRAINBOX S.A.C.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20602425585</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18976640</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>18976640</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-07-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TELECYL PERU SAC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20544751442</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20102592</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>45886</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ARRIBAS CORREDORES DE SEGUROS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20602317529</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20113203</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>46036</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SECCION PERUANA DE AMNISTIA INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FOLA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20525237</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3. Por renovar en Pacifico</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SERPAC PORTUARIA S.A.C.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20100398606</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>62082214</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2026-01-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CERRO AZUL S.A.C.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20111709948</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>62082215</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2026-01-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GAT PERU SAC</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20602674127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>62090148</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2026-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SERPAC AGENCIAS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20508783842</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>62092732</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CAMBIO DE BROKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BRICONS SAICFI SUCURSAL DEL PERU</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20548806772</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>62092904</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>03 - PENDIENTE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-07-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>EN PROCESO</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>EN PROCESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SERPAC INTERNATIONAL S.A.C.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20502216369</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>62096805</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1. No está cargado en el SICS-Tablero</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>RENOVADO HASTA EL 31.08.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TRIBECA MEDIA GROUP PERU SAC</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20392469029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>62100728</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>62100728</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RICOLFI &amp; C PERU SAC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20601833591</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>62101796</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62101796</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-07-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>RENUEVA EL 31.07.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ROMY &amp; MAICOL SERVICIOS ELECTRICOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20610655042</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>620100055</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NOVO NORDISK PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20601289688</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>620100226</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>620100226</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TRIBECA MEDIA GROUP PERU SAC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20392469029</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>620100728</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>45777</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PÓLIZA ANULADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NOVO NORDISK PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20601289688</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>620100820</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>03 - PENDIENTE</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-05-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ANULADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MEDINA RAGGIO FERNANDO MARIO</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10076062434</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>620101481</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>620101481</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RDV INGENIERIA Y CONSTRUCCION S.A.C.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SCTR Pensión</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>620102573</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3. Por renovar en Pacifico</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-08-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>20608895630</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ACC. PERSONALES</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2009098775</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3. Por renovar en Pacifico</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>EN RENOVACION</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FITESA PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>20451558383</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>52104</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>RENUEVA HASTA EL 01.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>THYSSENKRUPP MARINE SYSTEMS GMBH</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20602147852</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>87145</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>RENUEVA HASTA EL 01.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ELECNOR PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20256265916</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>108016</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FITESA PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20451558383</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>108635</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>RENUEVA HASTA EL 01.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ALBERTO ARRIBAS PROPIEDADES SAC</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20600895525</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>133112</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SE ENVIÓ A JESÚS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GRUPO 27 S.A.C.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20521413035</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1129952</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PÓLIZAS YA ESTÁN ANULADAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CORPORACION TERMODINAMICA SA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20374951824</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1130520</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PÓLIZAS YA ESTÁN ANULADAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SALVATIERRA OCHOA WILLIAN ASUNCION</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4918689</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1131683</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PÓLIZA EVENTUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ELECNOR PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20256265916</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21102735</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>RENOVACION ANUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ELECNOR PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20256265916</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>62081259</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FITESA PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>20451558383</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>62081889</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>RENUEVA HASTA EL 01.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DEUGRO PERU S.A.C</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>20456221859</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>620100477</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>RENUEVA HASTA EL 01.01.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GRUPO 27 S.A.C.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20521413035</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>620101612</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>PÓLIZAS YA ESTÁN ANULADAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RICOLFI &amp; C PERU SAC</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>20601833591</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>620101796</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PÓLIZAS YA ESTÁN ANULADAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CORPORACION TERMODINAMICA SA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>20374951824</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>620102358</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PÓLIZAS YA ESTÁN ANULADAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SALVATIERRA OCHOA WILLIAN ASUNCION</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4918689</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>620103789</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PÓLIZA EVENTUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>COMPAÑIA MINERA ANTAPACCAY S.A.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>20114915026</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>620103908</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No Encontrado</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PÓLIZA EVENTUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>JORLE S.A.C.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>20505203071</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>21424016</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>JORLE INDUSTRIAL S.A.C.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>20602892108</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>21442100</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FERRALIA PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20550335795</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>67752</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PREMIUM BRANDS S.A.C</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20515112554</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>72868</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FERRALIA PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20550335795</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>73906</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>THE CHEESE CORNER S.A.C.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20602654495</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>75392</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>INMOBILIARIA HASIERA SAC   INM. HASIERA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20545282217</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>79795</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ELECTRO CONDUCTORES PERUANOS S.A.C</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20117330347</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Vida Grupo</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>90335</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>EN PROCESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>QHSE - ENERGY SERVICES SAC</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20519364931</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>96400</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PIERO DORO S.A.C.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20543136329</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>97512</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TIQUE S.A.C.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20605923942</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>98237</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ALMAP S.A.C.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20605538488</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>105651</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CLIENTE CON DEUDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PCR SERVICIOS GENERALES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20503302650</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>122903</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ALMA EDUCATIVA SAC</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20613233572</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>123762</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BARTEX SUPPLIER E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20547965796</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>124106</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LIMA WINE MERCHANTS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20601765129</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>126184</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ALMASA S.R.L.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20100350743</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>126806</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SOLUTANKS DEL PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20612974293</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>131430</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BATARD WINE BAR S.A.C.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>20613635841</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Vida Ley</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>132858</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PGZU SRL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20544603842</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1128439</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>FIMA SA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20196629000</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1128870</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MILLION PERU SAC</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20521246031</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1129217</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TAVAN PERU SAC</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>20517430081</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1129358</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>FGH CORPORATION SAC</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>20509010502</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1130985</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ELECTRO CONDUCTORES PERUANOS S.A.C</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>20117330347</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1131072</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MARVAL PERU SAC</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20608582275</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1131099</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FIMA CORP SAC</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20611693673</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1131565</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ENLACES LOGISTICOS SAC</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20600698037</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SCTR Salud</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1131755</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SECCION PERUANA DE AMNISTIA INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20147965843</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>17480232</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SECCION PERUANA DE AMNISTIA INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>20147965843</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>20923635</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>RENUEVA AUN 14.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>COFFEE MICROLOTS PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20611672463</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>20970087</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>RENUEVA AUN 22.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CJR RENEWABLES PERU SAC</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20600873459</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>21237272</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CJR RENEWABLES PERU SAC</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>20600873459</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Asistencia Medica</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>21346949</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TALLERES LA LEGUA SAC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20546204201</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>62038970</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FERRALIA PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>20550335795</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>62048616</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ALMAP S.A.C.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>20605538488</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>62078780</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>CLIENTE CON DEUDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PCR SERVICIOS GENERALES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>20503302650</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>62095431</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>QUALITY SUPPLIER S.A.C.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>20605524258</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>62096739</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>FLORES MACHADO ALBERTO JOSE ANTONIO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>10082603056</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>62099161</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ALMASA S.R.L.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>20100350743</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>62099186</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PGZU SRL</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>20544603842</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>620100110</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>FIMA SA</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>20196629000</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>620100550</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TAVAN PERU SAC</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>20517430081</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>620101023</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BELTEX S.A.C.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>20544761081</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>620102259</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>FGH CORPORATION SAC</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>20509010502</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>620102989</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ELECTRO CONDUCTORES PERUANOS S.A.C</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>20117330347</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>620103144</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>EN CONSULTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MARVAL PERU SAC</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>20608582275</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>620103162</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>FIMA CORP SAC</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>20611693673</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>620103710</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>MES VENCIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ENLACES LOGISTICOS SAC</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>20600698037</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SCTR Pension</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>620103984</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>RENOVACION MENSUAL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
